--- a/Scrub Retail Data - Template 2017.xlsx
+++ b/Scrub Retail Data - Template 2017.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\608619925\workspace\Amazon WebScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
+    <workbookView windowHeight="11010" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$544</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$D$544</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Amazon ASIN</t>
   </si>
@@ -85,12 +85,16 @@
   </si>
   <si>
     <t>honeycando WO560</t>
+  </si>
+  <si>
+    <t>$53.99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,20 +122,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,10 +152,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -186,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +313,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -318,13 +322,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -334,7 +338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -343,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -362,12 +366,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -398,7 +402,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -417,7 +421,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -429,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -438,11 +442,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,7 +470,9 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -562,6 +568,6 @@
       <sortCondition ref="A1:A544"/>
     </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>